--- a/cbrunner/Parameters/LUT_lc_comp1.xlsx
+++ b/cbrunner/Parameters/LUT_lc_comp1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ACE1C0-F6EE-4265-BBAD-4B3B6C5154EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D680BC-FC29-44D1-A07D-4D3CC5386A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17775" yWindow="2445" windowWidth="6840" windowHeight="13185" xr2:uid="{8D94783A-D65D-497C-8209-138820888057}"/>
+    <workbookView xWindow="972" yWindow="72" windowWidth="16584" windowHeight="10500" xr2:uid="{8D94783A-D65D-497C-8209-138820888057}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -176,7 +176,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -282,7 +282,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -424,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,13 +438,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -469,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -477,7 +477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -485,7 +485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -509,7 +509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -517,7 +517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -525,7 +525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
